--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>003749</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>创金合信鑫收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>006906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>创金合信鑫收益灵活配置混合E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003749</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信鑫收益灵活配置混合A</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>30.12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.60</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006906</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信鑫收益灵活配置混合E</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>007143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>国投瑞银沪深300指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.98</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,26 +976,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>85.54</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -984,7 +985,6 @@
           <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>91.65</t>
@@ -1000,6 +1000,214 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1213,4 +1214,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1346,4 +1347,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1355,7 +1356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,17 +1367,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1386,14 +1407,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1402,14 +1445,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1418,14 +1483,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -1434,13 +1521,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1640,7 +1641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,17 +1652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1671,14 +1692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1687,14 +1730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1703,14 +1768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1719,14 +1806,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.24</v>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1735,13 +1844,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2267,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,17 +2279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2298,14 +2319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.81</v>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2314,14 +2357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2330,14 +2395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2346,14 +2433,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2362,14 +2471,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2378,13 +2509,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.81</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2410,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601998-中信银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.81</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010868</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝安盈混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1012,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1296,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1922,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2206,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2338,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2546,7 +3397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2821,288 +3672,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0650</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003749</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006906</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003750</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>